--- a/Walkup_Dataset.xlsx
+++ b/Walkup_Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlotte\OneDrive - University College London\Response to Psychological and Pharmacological Treatment for Depression in Children and Adolescents\apples_oranges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69925AC-DDDB-42E6-8A61-C10082ACBE28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E8D6F8-07C5-4B76-A9B5-CBDAF5FDD57C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8130" xr2:uid="{874CA958-7E14-46C0-A5BF-4B40BCCE41AC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
   <si>
     <t>Fluoxetine</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>total_n</t>
+  </si>
+  <si>
+    <t>K-SADS-L</t>
   </si>
 </sst>
 </file>
@@ -603,7 +606,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -714,8 +717,8 @@
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="7">
-        <v>2002</v>
+      <c r="B4" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>0</v>
@@ -852,7 +855,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>4</v>
@@ -916,7 +919,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>6</v>
@@ -1076,7 +1079,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>11</v>
